--- a/StructureDefinition-Biobank.xlsx
+++ b/StructureDefinition-Biobank.xlsx
@@ -634,7 +634,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bbmri-id-1:&lt;CC&gt;_&lt;local id&gt;: SHALL contain valid ISO-3166-1 alpha 2 country code followed by _ followed by biobank ID of national registry (if present). {matches('^([a-z]){2}_([a-zA-Z\\d])+$')}</t>
+bbmri-id-1:bbmri-eric:ID:&lt;CC&gt;_&lt;local id&gt;: SHALL contain the bbmri-eric prefix followed by valid ISO-3166-1 alpha 2 country code followed by _ followed by biobank ID of national registry (if present). {matches('^bbmri-eric:ID:([A-Z]){2}_([a-zA-Z\\d])+$')}</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>

--- a/StructureDefinition-Biobank.xlsx
+++ b/StructureDefinition-Biobank.xlsx
@@ -634,7 +634,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bbmri-id-1:bbmri-eric:ID:&lt;CC&gt;_&lt;local id&gt;: SHALL contain the bbmri-eric prefix followed by valid ISO-3166-1 alpha 2 country code followed by _ followed by biobank ID of national registry (if present). {matches('^bbmri-eric:ID:([A-Z]){2}_([a-zA-Z\\d])+$')}</t>
+bbmri-id-1:bbmri-eric:ID:&lt;CC&gt;_&lt;local id&gt;: SHALL contain the bbmri-eric prefix followed by valid ISO-3166-1 alpha 2 country code followed by _ followed by biobank ID of national registry (if present). {matches('^bbmri-eric:ID:([A-Z]){2}_([a-zA-Z0-9])+$')}</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>

--- a/StructureDefinition-Biobank.xlsx
+++ b/StructureDefinition-Biobank.xlsx
@@ -1291,8 +1291,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23T00:00:00+00:00"/&gt;
-  &lt;end value="2010-07-01T00:00:00+00:00"/&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>

--- a/StructureDefinition-Biobank.xlsx
+++ b/StructureDefinition-Biobank.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T15:55:49+00:00</t>
+    <t>2022-05-16T14:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Biobank.xlsx
+++ b/StructureDefinition-Biobank.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:46:52+00:00</t>
+    <t>2023-09-01T11:58:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
